--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1378818.77102144</v>
+        <v>-1381378.041588996</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9662774206981</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>295.0640301736143</v>
       </c>
       <c r="I2" t="n">
-        <v>43.29451177962366</v>
+        <v>43.2945117796236</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.2029851842623</v>
+        <v>102.5943205000545</v>
       </c>
       <c r="T2" t="n">
-        <v>192.4140991375368</v>
+        <v>204.1129955007334</v>
       </c>
       <c r="U2" t="n">
         <v>250.9987361002815</v>
@@ -756,7 +756,7 @@
         <v>89.82709352349997</v>
       </c>
       <c r="I3" t="n">
-        <v>9.512185486736399</v>
+        <v>9.512185486736385</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>100.1760248674701</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0457926480648</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.9326943004822</v>
       </c>
       <c r="I4" t="n">
-        <v>96.95340549104684</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.83072347163694</v>
+        <v>89.83072347163693</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>190.1172987294701</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2129282631967</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>177.7501559701148</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>41.88765656161195</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>380.1331275551026</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>42.86209348694693</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1069,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>25.78707624160822</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>79.52865635059598</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>259.2908938088645</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>272.3480879126212</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>75.02170687244396</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>65.38324202937339</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>122.8199531272439</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428085</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>42.53134576113661</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2056,10 +2056,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>172.593678423953</v>
       </c>
       <c r="V19" t="n">
-        <v>40.62253010341755</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,10 +2245,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>26.05480806223603</v>
       </c>
       <c r="S22" t="n">
-        <v>166.001633899725</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703269</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>164.5981994227938</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>1.799772605717114</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856545</v>
+        <v>81.26583631856548</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101216</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272882</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>191.2560787872432</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856545</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>117.4665281367411</v>
+        <v>39.39795577639038</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652626</v>
+        <v>56.98118882652491</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1935.335884201939</v>
+        <v>1931.204337051447</v>
       </c>
       <c r="C2" t="n">
-        <v>1566.373367261527</v>
+        <v>1562.241820111035</v>
       </c>
       <c r="D2" t="n">
-        <v>1208.107668654776</v>
+        <v>1203.976121504285</v>
       </c>
       <c r="E2" t="n">
-        <v>822.3194160565322</v>
+        <v>818.1878689060404</v>
       </c>
       <c r="F2" t="n">
-        <v>822.3194160565321</v>
+        <v>407.2019641164328</v>
       </c>
       <c r="G2" t="n">
-        <v>407.2019641164329</v>
+        <v>407.2019641164328</v>
       </c>
       <c r="H2" t="n">
         <v>109.1574891935902</v>
       </c>
       <c r="I2" t="n">
-        <v>65.4256591131623</v>
+        <v>65.42565911316235</v>
       </c>
       <c r="J2" t="n">
-        <v>250.5613272725626</v>
+        <v>250.5613272725632</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183944</v>
+        <v>578.7702206183949</v>
       </c>
       <c r="L2" t="n">
         <v>1022.844136887445</v>
       </c>
       <c r="M2" t="n">
-        <v>1548.63137006418</v>
+        <v>1548.631370064182</v>
       </c>
       <c r="N2" t="n">
-        <v>2087.540198746178</v>
+        <v>2087.54019874618</v>
       </c>
       <c r="O2" t="n">
-        <v>2583.081262767914</v>
+        <v>2583.081262767916</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.513095303803</v>
+        <v>2971.513095303805</v>
       </c>
       <c r="Q2" t="n">
-        <v>3215.036478301</v>
+        <v>3215.036478301002</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658115</v>
+        <v>3271.282955658117</v>
       </c>
       <c r="S2" t="n">
-        <v>3159.966809007345</v>
+        <v>3167.652328890385</v>
       </c>
       <c r="T2" t="n">
-        <v>2965.609133110843</v>
+        <v>2961.477585960351</v>
       </c>
       <c r="U2" t="n">
-        <v>2712.075056241872</v>
+        <v>2707.94350909138</v>
       </c>
       <c r="V2" t="n">
-        <v>2712.075056241872</v>
+        <v>2707.94350909138</v>
       </c>
       <c r="W2" t="n">
-        <v>2712.075056241872</v>
+        <v>2707.94350909138</v>
       </c>
       <c r="X2" t="n">
-        <v>2712.075056241872</v>
+        <v>2707.94350909138</v>
       </c>
       <c r="Y2" t="n">
-        <v>2321.93572426606</v>
+        <v>2317.804177115569</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3149953501908</v>
+        <v>1647.37174564539</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8619660690638</v>
+        <v>1472.918716364263</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9275564078125</v>
+        <v>1323.984306703012</v>
       </c>
       <c r="E3" t="n">
-        <v>448.690101402357</v>
+        <v>1164.746851697556</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1555434292419</v>
+        <v>1018.212293724441</v>
       </c>
       <c r="G3" t="n">
-        <v>165.7683651841081</v>
+        <v>881.8251154793073</v>
       </c>
       <c r="H3" t="n">
-        <v>75.0339272815829</v>
+        <v>791.0906775767821</v>
       </c>
       <c r="I3" t="n">
-        <v>65.4256591131623</v>
+        <v>781.4824094083615</v>
       </c>
       <c r="J3" t="n">
-        <v>156.8733478056104</v>
+        <v>872.9300981008097</v>
       </c>
       <c r="K3" t="n">
-        <v>419.0008575360357</v>
+        <v>1107.383588374681</v>
       </c>
       <c r="L3" t="n">
-        <v>780.5750497221811</v>
+        <v>1468.957780560826</v>
       </c>
       <c r="M3" t="n">
-        <v>1221.871945822811</v>
+        <v>1910.254676661457</v>
       </c>
       <c r="N3" t="n">
-        <v>1689.257302559075</v>
+        <v>2377.640033397721</v>
       </c>
       <c r="O3" t="n">
-        <v>2094.603797632936</v>
+        <v>2782.986528471582</v>
       </c>
       <c r="P3" t="n">
-        <v>2400.597029664691</v>
+        <v>3116.653779959891</v>
       </c>
       <c r="Q3" t="n">
-        <v>2555.226205362918</v>
+        <v>3271.282955658117</v>
       </c>
       <c r="R3" t="n">
-        <v>2555.226205362918</v>
+        <v>3271.282955658117</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.341079122718</v>
+        <v>3141.397829417917</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.601027250337</v>
+        <v>2948.657777545536</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.53159630069</v>
+        <v>2720.588346595889</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.379488068947</v>
+        <v>2485.436238364146</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.142131340745</v>
+        <v>2231.198881635945</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.290631135213</v>
+        <v>2023.347381430412</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.530332370259</v>
+        <v>1815.587082665458</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2260.697086232562</v>
+        <v>1895.563685871566</v>
       </c>
       <c r="C4" t="n">
-        <v>2091.760903304655</v>
+        <v>1726.627502943659</v>
       </c>
       <c r="D4" t="n">
-        <v>1990.572999398119</v>
+        <v>1576.510863531324</v>
       </c>
       <c r="E4" t="n">
-        <v>1842.659905815726</v>
+        <v>1576.510863531324</v>
       </c>
       <c r="F4" t="n">
-        <v>1695.769958317816</v>
+        <v>1576.510863531324</v>
       </c>
       <c r="G4" t="n">
-        <v>1528.046935440983</v>
+        <v>1576.510863531324</v>
       </c>
       <c r="H4" t="n">
-        <v>1528.046935440983</v>
+        <v>1430.114202621746</v>
       </c>
       <c r="I4" t="n">
-        <v>1430.114202621744</v>
+        <v>1430.114202621746</v>
       </c>
       <c r="J4" t="n">
-        <v>1473.838067726843</v>
+        <v>1473.838067726845</v>
       </c>
       <c r="K4" t="n">
-        <v>1675.526646248734</v>
+        <v>1675.526646248736</v>
       </c>
       <c r="L4" t="n">
-        <v>1989.145022412494</v>
+        <v>1989.145022412496</v>
       </c>
       <c r="M4" t="n">
-        <v>2330.200750630625</v>
+        <v>2330.200750630627</v>
       </c>
       <c r="N4" t="n">
-        <v>2668.581552350618</v>
+        <v>2668.581552350619</v>
       </c>
       <c r="O4" t="n">
-        <v>2965.114695744366</v>
+        <v>2965.114695744368</v>
       </c>
       <c r="P4" t="n">
-        <v>3195.329345372343</v>
+        <v>3195.329345372345</v>
       </c>
       <c r="Q4" t="n">
-        <v>3271.282955658115</v>
+        <v>3271.282955658117</v>
       </c>
       <c r="R4" t="n">
-        <v>3180.54485114131</v>
+        <v>3180.544851141312</v>
       </c>
       <c r="S4" t="n">
-        <v>3180.54485114131</v>
+        <v>2988.507175656999</v>
       </c>
       <c r="T4" t="n">
-        <v>3180.54485114131</v>
+        <v>2766.654309878984</v>
       </c>
       <c r="U4" t="n">
-        <v>3180.54485114131</v>
+        <v>2477.550341936361</v>
       </c>
       <c r="V4" t="n">
-        <v>3180.54485114131</v>
+        <v>2298.004729845336</v>
       </c>
       <c r="W4" t="n">
-        <v>2891.127681104349</v>
+        <v>2298.004729845336</v>
       </c>
       <c r="X4" t="n">
-        <v>2663.138130206331</v>
+        <v>2298.004729845336</v>
       </c>
       <c r="Y4" t="n">
-        <v>2442.345551062801</v>
+        <v>2077.212150701806</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1899.13013587303</v>
+        <v>1243.280836875046</v>
       </c>
       <c r="C5" t="n">
-        <v>1530.167618932618</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276232</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3283.295057405523</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3077.317309789745</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3077.317309789745</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2746.254422446174</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250375</v>
+        <v>2393.48576717606</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989295</v>
+        <v>2020.02000891498</v>
       </c>
       <c r="Y5" t="n">
-        <v>1899.13013587303</v>
+        <v>1629.880676939168</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,40 +4650,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>504.4781294962297</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>504.4781294962297</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>504.4781294962297</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>504.4781294962297</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>357.5881819983193</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>189.8853453730383</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368017</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368017</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.908724368017</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X7" t="n">
-        <v>906.9191734699996</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y7" t="n">
-        <v>686.1265943264694</v>
+        <v>1134.908724368016</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1624.63871203243</v>
+        <v>1881.708680670284</v>
       </c>
       <c r="C8" t="n">
-        <v>1255.676195092019</v>
+        <v>1512.746163729873</v>
       </c>
       <c r="D8" t="n">
-        <v>897.4104964852681</v>
+        <v>1154.480465123122</v>
       </c>
       <c r="E8" t="n">
-        <v>897.4104964852681</v>
+        <v>1154.480465123122</v>
       </c>
       <c r="F8" t="n">
-        <v>486.4245916956606</v>
+        <v>743.4945603335148</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>328.4221101785112</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4805,7 +4805,7 @@
         <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4835,19 +4835,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>2268.308520734406</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,19 +4884,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1548.361223971664</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1273.262145272047</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>1273.262145272047</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>604.8580214762837</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5039,7 +5039,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5048,7 +5048,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5057,10 +5057,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5130,10 +5130,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459582</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180513</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D13" t="n">
-        <v>449.4852666057157</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>301.5721730233226</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,19 +5200,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199803</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1616.556199993916</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>982.2858920990371</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5364,10 +5364,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400704</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121635</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121635</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121635</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121635</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270435</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138403</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703102</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1803.124031597425</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1548.439543391538</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1259.022373354577</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>1031.03282245656</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,19 +5829,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038341</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2420.645095638608</v>
       </c>
       <c r="S22" t="n">
-        <v>2212.238961752132</v>
+        <v>2237.790261293512</v>
       </c>
       <c r="T22" t="n">
-        <v>1992.637496775073</v>
+        <v>2018.188796316453</v>
       </c>
       <c r="U22" t="n">
-        <v>1703.562270119271</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V22" t="n">
-        <v>1448.877781913384</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W22" t="n">
-        <v>1159.460611876424</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X22" t="n">
-        <v>931.4710609784063</v>
+        <v>957.0223605197862</v>
       </c>
       <c r="Y22" t="n">
-        <v>931.4710609784063</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="23">
@@ -5975,61 +5975,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400714</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121646</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121646</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121646</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121646</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1811.200273012737</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1556.51578480685</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138413</v>
+        <v>1039.109063871872</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703112</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="26">
@@ -6221,34 +6221,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400721</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121652</v>
+        <v>762.5348780504993</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121652</v>
+        <v>612.4182386381634</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851782</v>
+        <v>464.5051450557703</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851782</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
         <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.28419561186</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138423</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703119</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356191</v>
+        <v>847.6442739835329</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232833</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408902</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429798</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.61519755786</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,7 +6634,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1569.732795130726</v>
+        <v>1715.635642676657</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.315625093766</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.228921741679</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.228921741679</v>
       </c>
     </row>
     <row r="32">
@@ -6692,58 +6692,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,13 +6871,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,7 +6889,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,52 +6923,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319333</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656827</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150033</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942665</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580123</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384024</v>
+        <v>151.3734194384011</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979287</v>
@@ -7114,7 +7114,7 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7138,7 +7138,7 @@
         <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150025</v>
@@ -7321,25 +7321,25 @@
         <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7427,7 +7427,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319316</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150014</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942646</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580104</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,25 +7594,25 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319316</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565681</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580108</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311325</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7849,7 +7849,7 @@
         <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>27.95355500662015</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>27.95355500661981</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.622913276780309</v>
+        <v>1.622913276780281</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7.6086646842078</v>
       </c>
       <c r="T2" t="n">
-        <v>11.69889636319668</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22708,22 +22708,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>48.43944815074228</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9326943004822</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.95340549104682</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,22 +22753,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>190.1172987294701</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.6343371202345</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2129282631967</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>74.3874873537132</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>80.03780599355785</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856283</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>102.8897022617933</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194304</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>138.494940240508</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>113.5907959652911</v>
       </c>
       <c r="V19" t="n">
-        <v>211.5151132204105</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,10 +24133,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>40.32043864788563</v>
       </c>
       <c r="S22" t="n">
-        <v>15.02465210191963</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194197</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>121.5862749664503</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>144.634190040852</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>94.92839560200088</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>134.6711151870869</v>
+        <v>212.7396875474376</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-4.760636329592671e-13</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26320,13 +26320,13 @@
         <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="F2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="G2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="H2" t="n">
         <v>161429.3199380012</v>
@@ -26338,7 +26338,7 @@
         <v>161429.3199380012</v>
       </c>
       <c r="K2" t="n">
-        <v>161429.3199380011</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
         <v>164208.3539728567</v>
@@ -26347,7 +26347,7 @@
         <v>164208.3539728567</v>
       </c>
       <c r="N2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="O2" t="n">
         <v>164208.3539728568</v>
@@ -26366,13 +26366,13 @@
         <v>1313514.533081207</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074647</v>
+        <v>14479.0523207458</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213977.889412553</v>
+        <v>213977.8894125531</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022902</v>
+        <v>3495.241841022607</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363172</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.968558980384842e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11698.02956068579</v>
+        <v>11698.02956068578</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314473</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26430,31 +26430,31 @@
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179353</v>
       </c>
       <c r="I4" t="n">
+        <v>11167.03225179349</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11167.03225179347</v>
+      </c>
+      <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="J4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11167.03225179353</v>
-      </c>
       <c r="L4" t="n">
-        <v>19157.89151488704</v>
+        <v>19157.89151488696</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.89151488703</v>
+        <v>19157.89151488696</v>
       </c>
       <c r="N4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="O4" t="n">
-        <v>19157.89151488697</v>
+        <v>19157.89151488696</v>
       </c>
       <c r="P4" t="n">
         <v>19157.89151488699</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1296677.489829547</v>
+        <v>-1297037.572845265</v>
       </c>
       <c r="C6" t="n">
-        <v>-48558.70593242793</v>
+        <v>-48558.70593242729</v>
       </c>
       <c r="D6" t="n">
         <v>-34079.65361168141</v>
       </c>
       <c r="E6" t="n">
-        <v>-276272.7039450545</v>
+        <v>-276307.4418704905</v>
       </c>
       <c r="F6" t="n">
-        <v>49139.75786230057</v>
+        <v>49105.01993686485</v>
       </c>
       <c r="G6" t="n">
-        <v>49139.75786230063</v>
+        <v>49105.01993686488</v>
       </c>
       <c r="H6" t="n">
-        <v>49139.75786230054</v>
+        <v>49105.01993686488</v>
       </c>
       <c r="I6" t="n">
-        <v>49139.7578623006</v>
+        <v>49105.01993686486</v>
       </c>
       <c r="J6" t="n">
-        <v>-164838.1315502525</v>
+        <v>-164872.8694756882</v>
       </c>
       <c r="K6" t="n">
-        <v>45644.51602127755</v>
+        <v>45609.77809584225</v>
       </c>
       <c r="L6" t="n">
         <v>22458.6286104225</v>
       </c>
       <c r="M6" t="n">
-        <v>-43168.68133145751</v>
+        <v>-43168.68133145744</v>
       </c>
       <c r="N6" t="n">
-        <v>41886.34660405433</v>
+        <v>41886.34660405439</v>
       </c>
       <c r="O6" t="n">
-        <v>41886.34660405447</v>
+        <v>41886.34660405442</v>
       </c>
       <c r="P6" t="n">
-        <v>41886.3466040543</v>
+        <v>41886.34660405436</v>
       </c>
     </row>
   </sheetData>
@@ -26707,19 +26707,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.171241461241152e-14</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>8.171241461241152e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203967</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491202</v>
+        <v>1078.694448491203</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145288</v>
+        <v>817.8207389145293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,19 +26808,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.171241461241152e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1078.694448491202</v>
+        <v>1078.694448491203</v>
       </c>
       <c r="C3" t="n">
-        <v>11.08225210209616</v>
+        <v>11.08225210209571</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145288</v>
+        <v>817.8207389145293</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776422</v>
+        <v>13.58071648776342</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145288</v>
+        <v>817.8207389145293</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776422</v>
+        <v>13.5807164877632</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.171241461241152e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145288</v>
+        <v>817.8207389145293</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776422</v>
+        <v>13.58071648776342</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>67.30010522656389</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.10481110095094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>136.9698866949904</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>118.9679386727126</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>331.3930693028575</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>35.31687057845596</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>14.17491042396978</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>143.5629464796508</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-1.276139040289943e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2.706357804527215e-12</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29746,10 +29746,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.336460094436991</v>
+        <v>4.336460094436992</v>
       </c>
       <c r="H2" t="n">
-        <v>44.41077194215285</v>
+        <v>44.41077194215286</v>
       </c>
       <c r="I2" t="n">
-        <v>167.1813777907822</v>
+        <v>167.1813777907823</v>
       </c>
       <c r="J2" t="n">
-        <v>368.0516299402219</v>
+        <v>368.051629940222</v>
       </c>
       <c r="K2" t="n">
-        <v>551.6139857377399</v>
+        <v>551.61398573774</v>
       </c>
       <c r="L2" t="n">
-        <v>684.3259263528661</v>
+        <v>684.3259263528662</v>
       </c>
       <c r="M2" t="n">
-        <v>761.4444485573099</v>
+        <v>761.44444855731</v>
       </c>
       <c r="N2" t="n">
-        <v>773.7654158006291</v>
+        <v>773.7654158006292</v>
       </c>
       <c r="O2" t="n">
-        <v>730.6447407365712</v>
+        <v>730.6447407365713</v>
       </c>
       <c r="P2" t="n">
-        <v>623.5883821551579</v>
+        <v>623.588382155158</v>
       </c>
       <c r="Q2" t="n">
-        <v>468.2889050231329</v>
+        <v>468.2889050231331</v>
       </c>
       <c r="R2" t="n">
-        <v>272.4001614071779</v>
+        <v>272.400161407178</v>
       </c>
       <c r="S2" t="n">
-        <v>98.81708440198304</v>
+        <v>98.81708440198305</v>
       </c>
       <c r="T2" t="n">
         <v>18.98285406339794</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3469168075549592</v>
+        <v>0.3469168075549593</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31124,7 +31124,7 @@
         <v>22.40835071299649</v>
       </c>
       <c r="I3" t="n">
-        <v>79.88444736467868</v>
+        <v>79.88444736467869</v>
       </c>
       <c r="J3" t="n">
         <v>219.2090293863113</v>
@@ -31133,31 +31133,31 @@
         <v>374.6631463217038</v>
       </c>
       <c r="L3" t="n">
-        <v>503.7808365335564</v>
+        <v>503.7808365335565</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8884744277052</v>
+        <v>587.8884744277053</v>
       </c>
       <c r="N3" t="n">
-        <v>603.4481330290548</v>
+        <v>603.4481330290549</v>
       </c>
       <c r="O3" t="n">
-        <v>552.0371485594552</v>
+        <v>552.0371485594553</v>
       </c>
       <c r="P3" t="n">
-        <v>443.058480173679</v>
+        <v>443.0584801736791</v>
       </c>
       <c r="Q3" t="n">
         <v>296.1728606498864</v>
       </c>
       <c r="R3" t="n">
-        <v>144.0565906871836</v>
+        <v>144.0565906871837</v>
       </c>
       <c r="S3" t="n">
-        <v>43.09689612603999</v>
+        <v>43.09689612604</v>
       </c>
       <c r="T3" t="n">
-        <v>9.352077341164289</v>
+        <v>9.352077341164291</v>
       </c>
       <c r="U3" t="n">
         <v>0.1526454408242268</v>
@@ -31197,10 +31197,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.945186710393971</v>
+        <v>1.945186710393972</v>
       </c>
       <c r="H4" t="n">
-        <v>17.29447820695732</v>
+        <v>17.29447820695733</v>
       </c>
       <c r="I4" t="n">
         <v>58.49706943621145</v>
@@ -31209,37 +31209,37 @@
         <v>137.5247004248538</v>
       </c>
       <c r="K4" t="n">
-        <v>225.9953287166813</v>
+        <v>225.9953287166814</v>
       </c>
       <c r="L4" t="n">
         <v>289.1962132889365</v>
       </c>
       <c r="M4" t="n">
-        <v>304.9168586120295</v>
+        <v>304.9168586120296</v>
       </c>
       <c r="N4" t="n">
-        <v>297.6666172369249</v>
+        <v>297.666617236925</v>
       </c>
       <c r="O4" t="n">
-        <v>274.9432997564134</v>
+        <v>274.9432997564135</v>
       </c>
       <c r="P4" t="n">
-        <v>235.2614908643762</v>
+        <v>235.2614908643763</v>
       </c>
       <c r="Q4" t="n">
         <v>162.8828617221716</v>
       </c>
       <c r="R4" t="n">
-        <v>87.46266790553254</v>
+        <v>87.46266790553256</v>
       </c>
       <c r="S4" t="n">
         <v>33.8992993075022</v>
       </c>
       <c r="T4" t="n">
-        <v>8.311252308046965</v>
+        <v>8.311252308046967</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1061010932942167</v>
+        <v>0.1061010932942168</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496635</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32242,7 +32242,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
         <v>981.2715114159425</v>
@@ -32312,19 +32312,19 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>188.4731159523455</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34147,10 +34147,10 @@
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043726</v>
@@ -34205,34 +34205,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>187.0057254135356</v>
+        <v>187.0057254135357</v>
       </c>
       <c r="K2" t="n">
-        <v>331.5241346927593</v>
+        <v>331.5241346927594</v>
       </c>
       <c r="L2" t="n">
-        <v>448.5595113828788</v>
+        <v>448.559511382879</v>
       </c>
       <c r="M2" t="n">
-        <v>531.0982153300372</v>
+        <v>531.0982153300373</v>
       </c>
       <c r="N2" t="n">
         <v>544.3523522040382</v>
       </c>
       <c r="O2" t="n">
-        <v>500.5465293148844</v>
+        <v>500.5465293148845</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3553863998883</v>
+        <v>392.3553863998885</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.9832151486835</v>
+        <v>245.9832151486836</v>
       </c>
       <c r="R2" t="n">
-        <v>56.81462359304578</v>
+        <v>56.81462359304584</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>92.37140271964458</v>
+        <v>92.37140271964461</v>
       </c>
       <c r="K3" t="n">
-        <v>264.7752623539649</v>
+        <v>236.8217073473448</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2264567536822</v>
+        <v>365.2264567536823</v>
       </c>
       <c r="M3" t="n">
-        <v>445.7544405056869</v>
+        <v>445.754440505687</v>
       </c>
       <c r="N3" t="n">
-        <v>472.1064209457215</v>
+        <v>472.1064209457217</v>
       </c>
       <c r="O3" t="n">
-        <v>409.4409041150108</v>
+        <v>409.4409041150109</v>
       </c>
       <c r="P3" t="n">
-        <v>309.0840727593488</v>
+        <v>337.0376277659686</v>
       </c>
       <c r="Q3" t="n">
         <v>156.1910865638649</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.16552030818099</v>
+        <v>44.16552030818102</v>
       </c>
       <c r="K4" t="n">
         <v>203.7258368907985</v>
@@ -34866,16 +34866,16 @@
         <v>344.5007355738701</v>
       </c>
       <c r="N4" t="n">
-        <v>341.7987896161535</v>
+        <v>341.7987896161536</v>
       </c>
       <c r="O4" t="n">
         <v>299.5284276704531</v>
       </c>
       <c r="P4" t="n">
-        <v>232.5400501292697</v>
+        <v>232.5400501292698</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.72081847047717</v>
+        <v>76.7208184704772</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663302</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35808,7 +35808,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191311</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>45.87687150790109</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295346</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899075</v>
@@ -36768,7 +36768,7 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36996,10 +36996,10 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37795,10 +37795,10 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016747</v>
